--- a/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_기출의지혜_속담제거.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_단답형_국어_기출의지혜_속담제거.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,14 +676,395 @@
           <t>맞/웅, 파생어</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20221202</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>18</t>
+      <c r="D11" t="n">
+        <v>20221202</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>맛나다</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>맛나다</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>파생어</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1. 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건.
+2. 마음씨가 바르지 못한 사람을 비유적으로 이르는 말.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>오그랑이</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>생겨나다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>受容</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>수용</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>바가지(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>노래말/노랫말</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>노랫말</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>빗나가다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>어느덧(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>굳세다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>새해(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>犬馬之誠</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>견마지로</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>견마지성, 「개나 말의 정성(精誠)」이라는 뜻으로, 임금이나 나라에 바치는 정성(精誠), 
+남에게 「자기(自己)가 바치는 정성(精誠)」을 아주 겸손(謙遜)하게 일컫는 말.</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>蓋世之才</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>격세지감</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>개세지재, 세상(世上)을 마음대로 다스릴 만한 뛰어난 재기(才氣). 또는 그러한 재기(才氣)를 가진 사람.</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>잡아먹히다(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>덮개(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2, 파생어</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>하늬바람</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>서쪽에서 부는 바람</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>길짐승(합성어/파생어)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1, 합성어</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221206</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>消防官</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>연구원</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>소방관</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20221206</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10</t>
         </is>
       </c>
     </row>
